--- a/front-end/my-scout/file/Classeur1.xlsx
+++ b/front-end/my-scout/file/Classeur1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -42,19 +42,37 @@
     <t>name</t>
   </si>
   <si>
-    <t>dedead</t>
-  </si>
-  <si>
-    <t>awdaw</t>
-  </si>
-  <si>
-    <t>dwadwa</t>
-  </si>
-  <si>
-    <t>adwada</t>
-  </si>
-  <si>
-    <t>sffewfw</t>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Ekipa Foibe</t>
+  </si>
+  <si>
+    <t>FIDI1</t>
+  </si>
+  <si>
+    <t>Filoha</t>
+  </si>
+  <si>
+    <t>Tana</t>
+  </si>
+  <si>
+    <t>FIFA1</t>
+  </si>
+  <si>
+    <t>Faritra Mahamasina</t>
+  </si>
+  <si>
+    <t>Tonia</t>
+  </si>
+  <si>
+    <t>Fivondronana St Michel</t>
+  </si>
+  <si>
+    <t>T11</t>
   </si>
 </sst>
 </file>
@@ -98,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,49 +414,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>2024</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>32888</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -445,14 +471,86 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="2">
+        <v>32888</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>2000</v>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4" s="2">
+        <v>32888</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="2">
+        <v>37636</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>

--- a/front-end/my-scout/file/Classeur1.xlsx
+++ b/front-end/my-scout/file/Classeur1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>year</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>T11</t>
+  </si>
+  <si>
+    <t>MP11</t>
+  </si>
+  <si>
+    <t>Mpiandraikitra</t>
+  </si>
+  <si>
+    <t>BZ11</t>
+  </si>
+  <si>
+    <t>Beazina</t>
   </si>
 </sst>
 </file>
@@ -414,14 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" customWidth="1"/>
   </cols>
@@ -551,6 +564,64 @@
       </c>
       <c r="I5">
         <v>7000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="2">
+        <v>37636</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="2">
+        <v>36906</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
